--- a/testing_case_5/Case D/Suspect 2 txn.xlsx
+++ b/testing_case_5/Case D/Suspect 2 txn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbap.adroot.hsbc\HK\HASE\28062201\Fraud_Ops_FIM_File_Sharing\HASE case\Gen AI\Upload to sharepoint\Batch 6\Case D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfong/hase-scripts/testing_case_5/Case D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20017445-509F-46C0-9142-705D00B76234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F3C71F-9BBC-B34C-B573-D6BA8296CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="1000" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction record" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Transaction Date (value)</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>YEUNG KAI</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t xml:space="preserve">CHUNG SIU </t>
@@ -129,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -494,178 +489,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>45771</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>66666666601</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>101890</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2">
+        <v>66666666601</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1">
-        <v>66666666601</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>101890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45770</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>66666666606</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>110000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>66666666606</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1">
-        <v>101890</v>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5">
-        <v>45770</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1">
-        <v>66666666606</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4">
-        <v>110000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1">
-        <v>66666666606</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -676,6 +666,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8F4FDE63F23240996C0B5ED71CAB02" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61b2ee7a38442529347de99e33b69841">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc14db02-3d39-436b-9056-63d1dbe054e8" xmlns:ns3="5ed3fcfa-dd51-4f96-90c6-6669337cd654" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="405649729e347460199c909c216f19f3" ns2:_="" ns3:_="">
     <xsd:import namespace="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
@@ -870,34 +880,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DA977A-AE1E-4B5A-8D26-CAE237F28BFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D133763D-E2BC-4287-994A-CF1A8F111EC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A3B196-6C30-4128-B329-407A70E33242}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D133763D-E2BC-4287-994A-CF1A8F111EC4}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DA977A-AE1E-4B5A-8D26-CAE237F28BFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A3B196-6C30-4128-B329-407A70E33242}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>